--- a/data/trans_bre/P5_6-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P5_6-Edad-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>-3,77</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>-1,65%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,04%</t>
+          <t>-3,9%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 8,43</t>
+          <t>-9,71; 9,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 6,64</t>
+          <t>-13,03; 7,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 9,2</t>
+          <t>-9,84; 10,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 7,22</t>
+          <t>-13,53; 7,42</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,76</t>
+          <t>-5,05</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,61</t>
+          <t>10,83</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-3,86%</t>
+          <t>-5,05%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>12,91%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,65; 2,49</t>
+          <t>-13,73; -1,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 31,64</t>
+          <t>-7,42; 50,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,88; 2,52</t>
+          <t>-13,73; -1,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 47,91</t>
+          <t>-7,4; 109,24</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,78</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,08</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,87%</t>
+          <t>-1,16%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,15%</t>
+          <t>-0,48%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 4,09</t>
+          <t>-8,13; 6,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 2,85</t>
+          <t>-6,94; 7,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 4,42</t>
+          <t>-8,34; 7,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 2,93</t>
+          <t>-7,12; 8,62</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,69</t>
+          <t>-4,99</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>-5,07</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,74%</t>
+          <t>-4,99%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,55%</t>
+          <t>-5,07%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 2,81</t>
+          <t>-11,99; -1,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 3,57</t>
+          <t>-12,1; -1,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 2,92</t>
+          <t>-11,99; -1,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 3,68</t>
+          <t>-12,1; -1,98</t>
         </is>
       </c>
     </row>
@@ -821,22 +821,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,69</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,39</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>3,03%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 11,1</t>
+          <t>0,0; 9,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 10,53</t>
+          <t>0,0; 9,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 12,76</t>
+          <t>0,0; 10,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 12,01</t>
+          <t>0,0; 10,81</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>-2,69</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>-2,73</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>-2,77%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>-2,81%</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 7,59</t>
+          <t>-14,04; 5,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 7,38</t>
+          <t>-14,08; 5,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 8,22</t>
+          <t>-14,25; 5,94</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 8,03</t>
+          <t>-14,19; 5,84</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>-2,57</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,38%</t>
+          <t>-2,63%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>0,25%</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,29 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 1,83</t>
+          <t>-5,34; 0,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 5,88</t>
+          <t>-3,7; 9,84</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 1,92</t>
+          <t>-5,41; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 6,52</t>
+          <t>-3,78; 11,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P5_6-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P5_6-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,6</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-3,77</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-1,65%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-3,9%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-1.598350457568765</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-4.173484119388271</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>-0.01650649720132671</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.04341358426778104</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-9,71; 9,56</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-13,03; 7,09</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-9,84; 10,33</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-13,53; 7,42</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-9.710353593809598</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-15.33263630442555</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.09838377891863444</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.1600811186867178</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>9.560588493818779</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>8.575516487736126</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.1032707379975905</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.08651525299168045</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-5,05</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>10,83</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-5,05%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>12,91%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-13,73; -1,59</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-7,42; 50,79</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-13,73; -1,59</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-7,4; 109,24</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-5.049915999748722</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>7.403714087679591</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.05049915999748722</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.08414540481284645</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-1,1</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,45</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,16%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,48%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-13.73164192027823</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-6.544328254826308</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.1373164192027823</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.06527086645489981</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-8,13; 6,72</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-6,94; 7,61</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-8,34; 7,43</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-7,12; 8,62</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-1.588333843219034</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>42.85783684674301</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>-0.01588333843219034</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.7819379317420567</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,179 +716,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-4,99</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-5,07</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-4,99%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-5,07%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-1.099723915519646</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-1.261975477840971</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>-0.01162781137797736</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.01330987353144842</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-11,99; -1,95</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-12,1; -1,98</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-11,99; -1,95</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-12,1; -1,98</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-8.13218716036824</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-8.583382158455894</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.08339469009010332</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.08695845670539339</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>6.718971620326355</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>6.506388417375667</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.07429702964935898</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.07313237836470185</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>2,95</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,94</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>3,04%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>3,03%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 9,45</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 9,75</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 10,43</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 10,81</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-4.990241055389721</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-4.983805049317258</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.04990241055389721</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.04983805049317258</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-2,69</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-2,73</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-2,77%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-2,81%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-11.98752421869262</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-11.65570097414117</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.1198752421869262</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.1165570097414117</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-14,04; 5,61</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-14,08; 5,52</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-14,25; 5,94</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-14,19; 5,84</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-1.952478980446434</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-1.876354735249848</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>-0.01952478980446434</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>-0.01876354735249848</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -939,57 +844,189 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-2,57</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-2,63%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,25%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>2.953557877521495</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>2.796444421476152</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>0.03043447871889962</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0.02876895196716444</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-5,34; 0,0</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-3,7; 9,84</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-5,41; 0,0</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-3,78; 11,45</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>9.445161217690799</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>9.32247412723518</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0.1042908896592469</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>0.1028021129598549</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-2.688476782510218</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-3.389812051288399</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.02766888525637633</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-0.03472181526785641</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-14.03742409913661</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-16.28563281806561</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.1425409100417911</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.1656537490962762</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>5.606253324432179</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>2.593306459935676</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.05939325186335927</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0.02638864306240018</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-2.573895948912797</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.7128545495448169</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>-0.02633039970126433</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>-0.007468476381182637</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-5.343337983371959</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-4.318207921384478</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>-0.05413893590700134</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.04412301535951957</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>0.004786417229262071</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>6.999610252804575</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>3.957207638160653e-05</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.07928025540162346</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -997,16 +1034,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
